--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,153 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>requirement_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>demand_element</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>layer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>horizon_days</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-48</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-75</v>
+        <v>-99</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45294</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-48</v>
+        <v>-63</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45294</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-118</v>
+        <v>-157</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45294</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-99</v>
+        <v>-98</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45294</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45294</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-157</v>
+        <v>-158</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45294</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-98</v>
+        <v>-63</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-65</v>
+        <v>-29</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -566,12 +566,44 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-158</v>
+        <v>-92</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-63</v>
+        <v>-7</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45294</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -531,22 +531,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-29</v>
+        <v>-637</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,44 +566,12 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-92</v>
+        <v>-282</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-50</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-7</v>
+        <v>-47</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45294</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -531,22 +531,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-637</v>
+        <v>-2</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-282</v>
+        <v>-150</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45294</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-47</v>
+        <v>-127</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45294</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-2</v>
+        <v>-243</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45294</v>
@@ -566,12 +566,44 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-150</v>
+        <v>-1075</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-33</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module3/Module3Output_20240103.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-127</v>
+        <v>-233</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45294</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-243</v>
+        <v>-441</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45294</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1075</v>
+        <v>-706</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45294</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -598,12 +598,76 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-33</v>
+        <v>-103</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-33</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
